--- a/data/provincias.xlsx
+++ b/data/provincias.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tchiluanda/Documents/GitHub/desiertos/desiertos-side/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EC5B845-5165-8A4A-975D-3CA620F02BEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148F231F-279A-374A-BF68-1D060EF62470}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="960" windowWidth="25040" windowHeight="13680" xr2:uid="{5C395DC2-1BD9-284E-8C62-26A6EFAD673D}"/>
+    <workbookView xWindow="560" yWindow="960" windowWidth="25040" windowHeight="13680" xr2:uid="{5C395DC2-1BD9-284E-8C62-26A6EFAD673D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -454,25 +453,6 @@
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Categorización de municipios"/>
-      <sheetName val="Perfil del Ecosistema Informati"/>
-      <sheetName val="Respuestas de formulario 1"/>
-      <sheetName val="Hoja2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -777,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CA5000-C160-8842-8396-E1C93D1836EA}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,9 +1035,8 @@
       <c r="B7" s="4">
         <v>121</v>
       </c>
-      <c r="C7" s="26" t="e">
-        <f>B7/'[2]Categorización de municipios'!D29</f>
-        <v>#DIV/0!</v>
+      <c r="C7" s="26">
+        <v>3.4571428571428573</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
